--- a/Resume/Resume_tabular.xlsx
+++ b/Resume/Resume_tabular.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\jimbojay\code\motivation_letter\Resume\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D06EFC4B-B966-41EE-B7B5-7330A9F4FCED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF0CF3D-8FC3-48AC-BDF5-E38FB91F36B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="24420" windowHeight="14620" xr2:uid="{2AE505F2-4446-483A-BC2B-CBD8F407408A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="90">
   <si>
     <t>Start</t>
   </si>
@@ -285,9 +285,6 @@
   </si>
   <si>
     <t>SQL, Excel</t>
-  </si>
-  <si>
-    <t>Manual year count</t>
   </si>
   <si>
     <t>Project management, strategy, stakeholder management, business development</t>
@@ -330,12 +327,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -376,7 +379,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -388,6 +391,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -724,47 +730,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E1A214E-41BA-4D2C-97E8-F6E060F5B115}">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="2" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="220.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="149.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="39.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="105.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.1796875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J1" s="4"/>
+    </row>
+    <row r="2" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>2023</v>
       </c>
@@ -787,19 +802,13 @@
         <v>13</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="J2">
-        <v>2</v>
-      </c>
-      <c r="K2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>2024</v>
       </c>
@@ -828,7 +837,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>2023</v>
       </c>
@@ -856,11 +865,8 @@
       <c r="I4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="5" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>2023</v>
       </c>
@@ -883,13 +889,13 @@
         <v>32</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>2023</v>
       </c>
@@ -915,13 +921,10 @@
         <v>39</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>2022</v>
       </c>
@@ -950,7 +953,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>2021</v>
       </c>
@@ -976,16 +979,10 @@
         <v>50</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="J8">
-        <v>2</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>2021</v>
       </c>
@@ -1011,16 +1008,10 @@
         <v>56</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>2017</v>
       </c>
@@ -1046,16 +1037,10 @@
         <v>62</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="J10">
-        <v>4</v>
-      </c>
-      <c r="K10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>2015</v>
       </c>
@@ -1084,7 +1069,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>2013</v>
       </c>
@@ -1113,7 +1098,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>2011</v>
       </c>
@@ -1140,7 +1125,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>2010</v>
       </c>
@@ -1167,7 +1152,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Resume/Resume_tabular.xlsx
+++ b/Resume/Resume_tabular.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\jimbojay\code\motivation_letter\Resume\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF0CF3D-8FC3-48AC-BDF5-E38FB91F36B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9901257-0B83-4FEF-AD07-020AF3B7B5F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="24420" windowHeight="14620" xr2:uid="{2AE505F2-4446-483A-BC2B-CBD8F407408A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="96">
   <si>
     <t>Start</t>
   </si>
@@ -68,15 +68,9 @@
     <t>DappAstra</t>
   </si>
   <si>
-    <t>Blockchain development</t>
-  </si>
-  <si>
     <t>COO</t>
   </si>
   <si>
-    <t>At DappAstra I am responsible for leveraging a network of freelance full stack blockchain developers to provide fit-for-purpose, high-quality solutions. More specifically I do project management (for Hackathons), host weekly team-meetings and one-on-one coaching sessions to establish and align (new) projects and their scopes. Next, I am in close contact with clients ensuring we always meet their expectations. As passionate coder I also (co-)develop myself (see ‘copy trader’)</t>
-  </si>
-  <si>
     <t>Network of 15 freelance developers, 3 grants secured, 1 hackathon participarion</t>
   </si>
   <si>
@@ -89,9 +83,6 @@
     <t>Developer Python automation</t>
   </si>
   <si>
-    <t>Maxeda uses the GS1 data model for product data which renews 4 times a year. Their PIM solution Riversand needs to be updated for this which has proven to be very labor intensive. In this project I automate the necessary import files to update Riversand. Next, items that, for any reason, cannot be updated are placed on a backlog.</t>
-  </si>
-  <si>
     <t>Reduction of &gt;75% labor time and inherently the ability to focus on more value-adding activities. Automated backlog creates awareness for priorities and/or Data Governance.</t>
   </si>
   <si>
@@ -110,9 +101,6 @@
     <t>Project manager, analyst &amp; co-developer</t>
   </si>
   <si>
-    <t>Create clear insights and an actionable overview for GS1 data compliancy of (potential) clients. Due to the lack hereof, end-to-end onboarding (=retailers receiving data) takes a long time, both in throughput time as well as effort wise. Next, as GS1 renews its data model every 3 months this prevents labor-intensive bottlenecks.</t>
-  </si>
-  <si>
     <t>A tool in JavaScript (back-end and front-end) to assess GS1 compliancy. Integrated the sources; My Product Manager (BE), Datasource (NL) and Qmica (syndication tool). Reduced 90-95% workload for the analysis-phase, normally 1-2 days. Created Power BI dashboard for actionable insights</t>
   </si>
   <si>
@@ -131,9 +119,6 @@
     <t>Data Govenance Analyst</t>
   </si>
   <si>
-    <t>Initiate product data governance for the Air Power division by providing a data quality assessment framework. Air Power was not fully ‘in control’ of processes, stakeholders, dataflows and even products to be able mitigate risks and/or exploit opportunities. A bottom up approach was chosen to pragmatically put provide the framework. I worked out one specific use-case surrounding the data quality of import-and export codes through analysis, interviews and workshops. I then abstracted the process to propose a data quality framework</t>
-  </si>
-  <si>
     <t>Proposed Data quality framework. Root-cause analysis – Use Case. Data Flow Diagram – Use case. Data quality metrics established – Use case. Stakeholder list/identification – Use case</t>
   </si>
   <si>
@@ -149,9 +134,6 @@
     <t>Master Data Governance Lead (Product)</t>
   </si>
   <si>
-    <t>Initiate product master data governance for Daikin by program manager for a hybrid program of top-down and bottom up projects. While phase 1 deliverables, predominantly surrounding vision was successful, budget constraints have put the implementation phase on hold.</t>
-  </si>
-  <si>
     <t>Guided automation of material creation in SAP. Implemented data glossary. Vision on product master data governance organization. Vision on data architecture. Vision on data quality approach and dashboarding.</t>
   </si>
   <si>
@@ -164,9 +146,6 @@
     <t>Data Governance analyst</t>
   </si>
   <si>
-    <t>Lecot’s PIM/DAM solution was due for an substantial upgrade on both their license as well as the technical architecture. Next, the first data manager entered the organization to setup the data management department. To support this process I have performed a data governance assessment through interviews and workshops. Next, I coached the data manager on a daily basis.</t>
-  </si>
-  <si>
     <t>Data governance assessment. Increased effective product identification with EAN/GTIN. Identified and connected stakeholders (data-owner, -steward, -consumer, -producer). Successful data-standard selection. Successful PIM selection. Next steps for processes, people and systems</t>
   </si>
   <si>
@@ -182,9 +161,6 @@
     <t>Project manager data quality &amp; compliance</t>
   </si>
   <si>
-    <t>Assess data quality and compliancy levels with the GS1 data standard and their data-consumers, set actionable steps and manage operations to attain full compliancy. This requires close alignment with both my client teams as well as the client’s clients (the data-consumers) and our own production department</t>
-  </si>
-  <si>
     <t>100% data quality and compliance with GS1 data standard</t>
   </si>
   <si>
@@ -287,9 +263,6 @@
     <t>SQL, Excel</t>
   </si>
   <si>
-    <t>Project management, strategy, stakeholder management, business development</t>
-  </si>
-  <si>
     <t>Data governance consultancy, program management, stakeholder management</t>
   </si>
   <si>
@@ -306,6 +279,63 @@
   </si>
   <si>
     <t>Databricks, SQL, Excel, Lucidchart, Jira, Confluence</t>
+  </si>
+  <si>
+    <t>Qatar Financial Center</t>
+  </si>
+  <si>
+    <t>Web3 / Blockchain</t>
+  </si>
+  <si>
+    <t>Project Manager</t>
+  </si>
+  <si>
+    <t>Still ongoing</t>
+  </si>
+  <si>
+    <t>Notion</t>
+  </si>
+  <si>
+    <t>Project management, corporate finance, stakeholder management, web3 consultancy, blockchain consultancy</t>
+  </si>
+  <si>
+    <t>Project management, strategy, stakeholder management, business development, web3 consultancy, blockchain consultancy</t>
+  </si>
+  <si>
+    <t>• Strategic Project Revitalization: Tasked with revitalizing and leading a high-stakes project aimed at tokenizing shares of private limited liability companies to enhance their tradability and liquidity. Addressed and corrected previous project management deficiencies to realign project objectives with client and market needs.
+• Innovative Financial Solutions: Pioneered the adoption of blockchain technology to tokenize non-publicly traded shares, increasing market accessibility and liquidity. Oversaw the design and implementation of the tokenization process, ensuring compliance with relevant financial regulations and security standards.
+• Enhanced Communication and Stakeholder Engagement: Established as the primary point of contact for all stakeholders, including the client and an offshore development team. Instituted a transparent communication framework to ensure all parties were consistently aligned with the project’s progress and objectives.
+• Leadership in Technology Integration: Led a multidisciplinary team through the complex integration of financial and blockchain technologies, delivering a scalable and secure platform. Facilitated knowledge sharing and technical upskilling sessions to boost team expertise in emerging technologies.</t>
+  </si>
+  <si>
+    <t>• At DappAstra I am responsible for leveraging a network of freelance full stack blockchain developers to provide fit-for-purpose, high-quality solutions. 
+• More specifically I do project management (for Hackathons), host weekly team-meetings and one-on-one coaching sessions to establish and align (new) projects and their scopes. 
+• Next, I am in close contact with clients ensuring we always meet their expectations. 
+• As passionate coder I also (co-)develop myself (see ‘copy trader’)</t>
+  </si>
+  <si>
+    <t>• Maxeda uses the GS1 data model for product data which renews 4 times a year. Their PIM solution Riversand needs to be updated for this which has proven to be very labor intensive. In this project I automate the necessary import files to update Riversand. 
+• Next, items that, for any reason, cannot be updated are placed on a backlog.</t>
+  </si>
+  <si>
+    <t>• Create clear insights and an actionable overview for GS1 data compliancy of (potential) clients. Due to the lack hereof, end-to-end onboarding (=retailers receiving data) takes a long time, both in throughput time as well as effort wise. Next, as GS1 renews its data model every 3 months this prevents labor-intensive bottlenecks.</t>
+  </si>
+  <si>
+    <t>• Initiate product data governance for the Air Power division by providing a data quality assessment framework. Air Power was not fully ‘in control’ of processes, stakeholders, dataflows and even products to be able mitigate risks and/or exploit opportunities. 
+• A bottom up approach was chosen to pragmatically put provide the framework. 
+• I worked out one specific use-case surrounding the data quality of import-and export codes through analysis, interviews and workshops. I then abstracted the process to propose a data quality framework</t>
+  </si>
+  <si>
+    <t>• Initiate product master data governance for Daikin by program manager for a hybrid program of top-down and bottom up projects. While phase 1 deliverables, predominantly surrounding vision was successful, budget constraints have put the implementation phase on hold.</t>
+  </si>
+  <si>
+    <t>• Lecot’s PIM/DAM solution was due for an substantial upgrade on both their license as well as the technical architecture. 
+• Next, the first data manager entered the organization to setup the data management department. To support this process I have performed a data governance assessment through interviews and workshops. 
+• Next, I coached the data manager on a daily basis.</t>
+  </si>
+  <si>
+    <t>• Assess data quality and compliancy levels with the GS1 data standard and their data-consumers, set actionable steps and manage operations to attain full compliancy. 
+• This requires close alignment with both my client teams as well as the client’s clients (the data-consumers) and our own production department</t>
   </si>
 </sst>
 </file>
@@ -730,10 +760,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E1A214E-41BA-4D2C-97E8-F6E060F5B115}">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="64" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -781,89 +811,89 @@
     </row>
     <row r="2" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B2" s="2">
         <v>2024</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>11</v>
+        <v>83</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B3" s="2">
         <v>2024</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>20</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B4" s="2">
         <v>2024</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -874,25 +904,25 @@
         <v>2024</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>31</v>
+        <v>91</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -900,86 +930,86 @@
         <v>2023</v>
       </c>
       <c r="B6" s="2">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>37</v>
+        <v>92</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>84</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B7" s="2">
         <v>2023</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>42</v>
+        <v>93</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B8" s="2">
         <v>2023</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -987,172 +1017,201 @@
         <v>2021</v>
       </c>
       <c r="B9" s="2">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>54</v>
+        <v>95</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="B10" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="B11" s="2">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="B12" s="2">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="B13" s="2">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>74</v>
+        <v>56</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G13" s="1"/>
+        <v>63</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="H13" s="1" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B14" s="2">
-        <v>2011</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>75</v>
+        <v>2012</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.35"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="2">
+        <v>2010</v>
+      </c>
+      <c r="B15" s="2">
+        <v>2011</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
